--- a/開發列表.xlsx
+++ b/開發列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\宏新科影像案\勝品電通\Inspect_UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD27955-B608-445B-BA92-30C08AD9D456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABC5710-702C-4AF7-9E56-4D67FDADCBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/開發列表.xlsx
+++ b/開發列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\宏新科影像案\勝品電通\Inspect_UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABC5710-702C-4AF7-9E56-4D67FDADCBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26B35C-4CB2-478C-9EA1-418B6F19C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30735" yWindow="1380" windowWidth="21570" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以檢驗區域亮燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提供包裝人員視覺化確認已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +139,29 @@
   </si>
   <si>
     <t>提供使用者修改偵測框序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>檢驗區域亮燈</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +192,21 @@
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,6 +242,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -490,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,10 +660,10 @@
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -636,11 +673,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -651,10 +688,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
